--- a/Task_BackEnd.xlsx
+++ b/Task_BackEnd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoanganh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Study_Again\java\Demo_project_java_UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Oauth2 - With user name and pass in Database</t>
   </si>
   <si>
-    <t>Working</t>
-  </si>
-  <si>
     <t>Upload Image</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>Make exel user infor</t>
+  </si>
+  <si>
+    <t>Make Later</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -460,7 +463,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -479,116 +482,120 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/Task_BackEnd.xlsx
+++ b/Task_BackEnd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -80,19 +80,31 @@
     <t>Setup into Server</t>
   </si>
   <si>
-    <t>Change Password</t>
-  </si>
-  <si>
     <t>Download Image by Zip</t>
   </si>
   <si>
     <t>Make exel user infor</t>
   </si>
   <si>
-    <t>Make Later</t>
-  </si>
-  <si>
     <t>making</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>15/3/2020</t>
+  </si>
+  <si>
+    <t>22/3/2020</t>
+  </si>
+  <si>
+    <t>25/3/2020</t>
+  </si>
+  <si>
+    <t>28/3/2020</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +163,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,225 +451,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
